--- a/VersionRecords/Version 3.4.2/版本Bug和特性计划及评审表v3.4.2_磐石组.xlsx
+++ b/VersionRecords/Version 3.4.2/版本Bug和特性计划及评审表v3.4.2_磐石组.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="64">
   <si>
     <t>No</t>
   </si>
@@ -227,7 +227,27 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>400拨号列表页面查询优化</t>
+    <t>职业房东录入增加品牌名称校验</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册用户明细列表页面查询优化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小区地铁关系补全,根据地铁线新增的百度别名字段查询地铁站ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市地铁添加百度别名字段的维护</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张浩</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -235,11 +255,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>职业房东录入增加品牌名称校验</t>
+    <t>宋伟</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>BS</t>
+    <t>张浩</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1019,7 +1039,7 @@
   <dimension ref="A1:T216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1111,7 +1131,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>30</v>
@@ -1145,7 +1165,7 @@
         <v>31</v>
       </c>
       <c r="N2" s="13">
-        <v>42578</v>
+        <v>42577</v>
       </c>
       <c r="O2" s="14" t="s">
         <v>33</v>
@@ -1183,7 +1203,7 @@
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="14" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>28</v>
@@ -1197,7 +1217,9 @@
       <c r="N3" s="13">
         <v>42572</v>
       </c>
-      <c r="O3" s="14"/>
+      <c r="O3" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
@@ -1209,7 +1231,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>30</v>
@@ -1231,7 +1253,7 @@
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="14" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>28</v>
@@ -1243,9 +1265,11 @@
         <v>31</v>
       </c>
       <c r="N4" s="13">
-        <v>42578</v>
-      </c>
-      <c r="O4" s="14"/>
+        <v>42577</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
       <c r="R4" s="22"/>
@@ -1257,13 +1281,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>27</v>
@@ -1279,7 +1303,7 @@
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="14" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>28</v>
@@ -1291,33 +1315,61 @@
         <v>31</v>
       </c>
       <c r="N5" s="13">
-        <v>42578</v>
-      </c>
-      <c r="O5" s="14"/>
+        <v>42577</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="P5" s="22"/>
       <c r="Q5" s="22"/>
       <c r="R5" s="22"/>
       <c r="S5" s="18"/>
       <c r="T5" s="10"/>
     </row>
-    <row r="6" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.35">
       <c r="A6" s="21">
         <v>7</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="B6" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="13">
+        <v>42577</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="13">
+        <v>42577</v>
+      </c>
       <c r="I6" s="12"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="14"/>
+      <c r="J6" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="13">
+        <v>42578</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="P6" s="22"/>
       <c r="Q6" s="22"/>
       <c r="R6" s="22"/>
@@ -1328,17 +1380,37 @@
       <c r="A7" s="21">
         <v>8</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="B7" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="13">
+        <v>42578</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="13">
+        <v>42578</v>
+      </c>
       <c r="I7" s="12"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
+      <c r="J7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="M7" s="14"/>
       <c r="N7" s="13"/>
       <c r="O7" s="14"/>

--- a/VersionRecords/Version 3.4.2/版本Bug和特性计划及评审表v3.4.2_磐石组.xlsx
+++ b/VersionRecords/Version 3.4.2/版本Bug和特性计划及评审表v3.4.2_磐石组.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="66">
   <si>
     <t>No</t>
   </si>
@@ -260,6 +260,14 @@
   </si>
   <si>
     <t>张浩</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【房东手机号】统一屏蔽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏国泰</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1039,7 +1047,7 @@
   <dimension ref="A1:T216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1411,9 +1419,15 @@
       <c r="L7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="14"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="14"/>
+      <c r="M7" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="13">
+        <v>42578</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
       <c r="R7" s="22"/>
@@ -1424,20 +1438,46 @@
       <c r="A8" s="21">
         <v>9</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
+      <c r="B8" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="13">
+        <v>42576</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="13">
+        <v>42576</v>
+      </c>
       <c r="I8" s="12"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="14"/>
+      <c r="J8" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="13">
+        <v>42578</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
       <c r="R8" s="22"/>

--- a/VersionRecords/Version 3.4.2/版本Bug和特性计划及评审表v3.4.2_磐石组.xlsx
+++ b/VersionRecords/Version 3.4.2/版本Bug和特性计划及评审表v3.4.2_磐石组.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="70">
   <si>
     <t>No</t>
   </si>
@@ -268,6 +268,22 @@
   </si>
   <si>
     <t>苏国泰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存或编辑小区时，搜索附近1.5KM内所有地铁线路进行数据关联</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拓展员首页，样式问题，苹果浏览器表格错乱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王龙国</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>营销组</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1047,7 +1063,7 @@
   <dimension ref="A1:T216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1484,24 +1500,50 @@
       <c r="S8" s="18"/>
       <c r="T8" s="10"/>
     </row>
-    <row r="9" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.35">
       <c r="A9" s="21">
         <v>10</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="B9" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="13">
+        <v>42583</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="13">
+        <v>42583</v>
+      </c>
       <c r="I9" s="12"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="14"/>
+      <c r="J9" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="13">
+        <v>42583</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="P9" s="22"/>
       <c r="Q9" s="22"/>
       <c r="R9" s="22"/>
@@ -1512,20 +1554,46 @@
       <c r="A10" s="21">
         <v>11</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+      <c r="B10" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="13">
+        <v>42580</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="13">
+        <v>42580</v>
+      </c>
       <c r="I10" s="12"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="14"/>
+      <c r="J10" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" s="13">
+        <v>42580</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="P10" s="22"/>
       <c r="Q10" s="22"/>
       <c r="R10" s="22"/>
